--- a/notebooks/ATP13A2/input/ATP13A2_SPG78_individuals.xlsx
+++ b/notebooks/ATP13A2/input/ATP13A2_SPG78_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ATP13A2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1BAFA4-34D8-2D48-9B29-7AF02E695F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A958F82-9F14-614E-98BB-86388AD626D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="10600" windowWidth="27640" windowHeight="16940" xr2:uid="{9E160DBE-D155-9047-AFEA-F70DD1A49189}"/>
+    <workbookView xWindow="2760" yWindow="4340" windowWidth="27640" windowHeight="16940" xr2:uid="{9E160DBE-D155-9047-AFEA-F70DD1A49189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="123">
   <si>
     <t>PMID</t>
   </si>
@@ -297,13 +297,121 @@
   </si>
   <si>
     <t>HP:0000718</t>
+  </si>
+  <si>
+    <t>PMID:31944623</t>
+  </si>
+  <si>
+    <t>Clinical and genetic analysis of ATP13A2 in hereditary spastic paraplegia expands the phenotype</t>
+  </si>
+  <si>
+    <t>Leu825AsnfsTer33</t>
+  </si>
+  <si>
+    <t>c.2473delinsAA</t>
+  </si>
+  <si>
+    <t>c.2126G&gt;C</t>
+  </si>
+  <si>
+    <t>c.2158G&gt;T</t>
+  </si>
+  <si>
+    <t>Patient A</t>
+  </si>
+  <si>
+    <t>P31Y</t>
+  </si>
+  <si>
+    <t>P44Y</t>
+  </si>
+  <si>
+    <t>Patient B</t>
+  </si>
+  <si>
+    <t>Patient C</t>
+  </si>
+  <si>
+    <t>P6Y</t>
+  </si>
+  <si>
+    <t>P24Y</t>
+  </si>
+  <si>
+    <t>Hyperreflexia</t>
+  </si>
+  <si>
+    <t>HP:0001347</t>
+  </si>
+  <si>
+    <t>Dysdiadochokinesis</t>
+  </si>
+  <si>
+    <t>HP:0002075</t>
+  </si>
+  <si>
+    <t>Dysphagia</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Impaired vibratory sensation;Hallucinations;Delusions</t>
+  </si>
+  <si>
+    <t>Intellectual disability, mild;Pes cavus</t>
+  </si>
+  <si>
+    <t>PMID:33862550</t>
+  </si>
+  <si>
+    <t>A novel homozygous mutation in ATP13A2 gene causing pure hereditary spastic paraplegia</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>P25Y</t>
+  </si>
+  <si>
+    <t>Spasticity;Lower limb muscle weakness</t>
+  </si>
+  <si>
+    <t>c.1942C&gt;T</t>
+  </si>
+  <si>
+    <t>Gln648Ter</t>
+  </si>
+  <si>
+    <t>P27Y</t>
+  </si>
+  <si>
+    <t>PMID:36247900</t>
+  </si>
+  <si>
+    <t>Autosomal Recessive Spastic Paraplegia Type 78 Associated with a Homozygous Variant in the ATP13A2 Gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IV-2</t>
+  </si>
+  <si>
+    <t>P16Y</t>
+  </si>
+  <si>
+    <t>Spasticity;Lower limb muscle weakness;Ankle clonus;Dysmetria;Gaze-evoked nystagmus</t>
+  </si>
+  <si>
+    <t>Gln122*</t>
+  </si>
+  <si>
+    <t>Ankle clonus;Psychosis;Frequent falls;Dysphagia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +428,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -353,6 +468,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,18 +783,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81992D9-30FF-084D-94FF-0FEEA3FDDD87}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +895,17 @@
       <c r="AG1" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="AH1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -879,8 +1005,17 @@
       <c r="AG2" t="s">
         <v>86</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -977,8 +1112,14 @@
       <c r="AG3" t="s">
         <v>48</v>
       </c>
+      <c r="AH3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1072,8 +1213,14 @@
       <c r="AG4" t="s">
         <v>48</v>
       </c>
+      <c r="AH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1167,8 +1314,14 @@
       <c r="AG5" t="s">
         <v>48</v>
       </c>
+      <c r="AH5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1265,8 +1418,14 @@
       <c r="AG6" t="s">
         <v>48</v>
       </c>
+      <c r="AH6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1351,11 +1510,417 @@
       <c r="AC7" t="s">
         <v>45</v>
       </c>
+      <c r="AD7" t="s">
+        <v>48</v>
+      </c>
       <c r="AF7" t="s">
         <v>45</v>
       </c>
       <c r="AG7" t="s">
         <v>45</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/ATP13A2/input/ATP13A2_SPG78_individuals.xlsx
+++ b/notebooks/ATP13A2/input/ATP13A2_SPG78_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ATP13A2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ATP13A2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1D6055-B575-4045-9DA8-DA340E219C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F5C72-4638-194C-A0F0-B9B0CAD2129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="10020" windowWidth="27640" windowHeight="16940" xr2:uid="{9E160DBE-D155-9047-AFEA-F70DD1A49189}"/>
+    <workbookView xWindow="7360" yWindow="3200" windowWidth="27640" windowHeight="16940" xr2:uid="{9E160DBE-D155-9047-AFEA-F70DD1A49189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="139">
   <si>
     <t>PMID</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
   </si>
 </sst>
 </file>
@@ -838,19 +844,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81992D9-30FF-084D-94FF-0FEEA3FDDD87}">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="16" width="10.83203125" customWidth="1"/>
+    <col min="4" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,82 +900,85 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -1013,82 +1022,85 @@
         <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1128,17 +1140,17 @@
       <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>45</v>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
         <v>42</v>
@@ -1156,7 +1168,7 @@
         <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s">
         <v>45</v>
@@ -1174,13 +1186,13 @@
         <v>45</v>
       </c>
       <c r="AD3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s">
         <v>42</v>
       </c>
       <c r="AF3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="s">
         <v>45</v>
@@ -1192,13 +1204,16 @@
         <v>45</v>
       </c>
       <c r="AJ3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s">
         <v>17</v>
       </c>
+      <c r="AL3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1235,17 +1250,17 @@
       <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
         <v>42</v>
@@ -1257,13 +1272,13 @@
         <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s">
         <v>45</v>
@@ -1284,10 +1299,10 @@
         <v>45</v>
       </c>
       <c r="AE4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="s">
         <v>45</v>
@@ -1299,13 +1314,16 @@
         <v>45</v>
       </c>
       <c r="AJ4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s">
         <v>17</v>
       </c>
+      <c r="AL4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1342,17 +1360,17 @@
       <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>45</v>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
         <v>42</v>
@@ -1370,7 +1388,7 @@
         <v>42</v>
       </c>
       <c r="X5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="s">
         <v>45</v>
@@ -1388,13 +1406,13 @@
         <v>45</v>
       </c>
       <c r="AD5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s">
         <v>42</v>
       </c>
       <c r="AF5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="s">
         <v>45</v>
@@ -1406,13 +1424,16 @@
         <v>45</v>
       </c>
       <c r="AJ5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s">
         <v>17</v>
       </c>
+      <c r="AL5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1452,32 +1473,32 @@
       <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>45</v>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
         <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="X6" t="s">
         <v>45</v>
@@ -1495,7 +1516,7 @@
         <v>45</v>
       </c>
       <c r="AC6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AD6" t="s">
         <v>42</v>
@@ -1513,16 +1534,19 @@
         <v>42</v>
       </c>
       <c r="AI6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s">
         <v>17</v>
       </c>
+      <c r="AL6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1562,38 +1586,38 @@
       <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
+      <c r="Q7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
         <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
         <v>42</v>
@@ -1602,10 +1626,10 @@
         <v>42</v>
       </c>
       <c r="AB7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s">
         <v>42</v>
@@ -1614,25 +1638,28 @@
         <v>42</v>
       </c>
       <c r="AF7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>42</v>
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>45</v>
       </c>
       <c r="AI7" t="s">
         <v>42</v>
       </c>
       <c r="AJ7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="s">
         <v>17</v>
       </c>
       <c r="AL7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1672,50 +1699,53 @@
       <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" t="s">
         <v>42</v>
       </c>
       <c r="AE8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI8" t="s">
         <v>42</v>
       </c>
       <c r="AK8" t="s">
         <v>42</v>
       </c>
       <c r="AL8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1752,28 +1782,28 @@
       <c r="N9" t="s">
         <v>96</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" t="s">
         <v>42</v>
       </c>
       <c r="AE9" t="s">
@@ -1782,17 +1812,20 @@
       <c r="AF9" t="s">
         <v>42</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AG9" t="s">
         <v>42</v>
       </c>
       <c r="AK9" t="s">
         <v>42</v>
       </c>
       <c r="AL9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1829,29 +1862,29 @@
       <c r="N10" t="s">
         <v>72</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>42</v>
+      <c r="Q10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>17</v>
       </c>
       <c r="AE10" t="s">
         <v>42</v>
@@ -1859,17 +1892,20 @@
       <c r="AF10" t="s">
         <v>42</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AG10" t="s">
         <v>42</v>
       </c>
       <c r="AK10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1909,35 +1945,35 @@
       <c r="N11" t="s">
         <v>111</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>45</v>
+      <c r="Q11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R11" t="s">
         <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s">
         <v>17</v>
       </c>
       <c r="U11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>42</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>45</v>
@@ -1972,17 +2008,20 @@
       <c r="AI11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AJ11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -2022,41 +2061,44 @@
       <c r="N12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="s">
         <v>32</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AK12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2096,34 +2138,34 @@
       <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>42</v>
+      <c r="Q13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
         <v>120</v>
       </c>
-      <c r="V13" t="s">
-        <v>45</v>
+      <c r="U13" t="s">
+        <v>120</v>
       </c>
       <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
         <v>120</v>
       </c>
-      <c r="Y13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="Z13" t="s">
         <v>120</v>
       </c>
       <c r="AE13" t="s">
@@ -2132,16 +2174,19 @@
       <c r="AF13" t="s">
         <v>120</v>
       </c>
-      <c r="AH13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AG13" t="s">
         <v>120</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AI13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM13" t="s">
         <v>129</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>126</v>
       </c>
     </row>
